--- a/data/trans_dic/P14_x_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14_x_R-Habitat-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,33</t>
+          <t>0,85; 10,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 14,51</t>
+          <t>3,8; 15,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 23,74</t>
+          <t>8,95; 22,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 11,77</t>
+          <t>5,32; 12,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,59</t>
+          <t>6,11; 13,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,4</t>
+          <t>5,62; 11,61</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,99</t>
+          <t>1,32; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,9</t>
+          <t>5,87; 10,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,84</t>
+          <t>8,49; 14,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,88</t>
+          <t>9,37; 13,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,52</t>
+          <t>5,33; 8,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,45</t>
+          <t>8,29; 11,47</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,2</t>
+          <t>1,45; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,93</t>
+          <t>3,18; 5,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,06</t>
+          <t>7,21; 11,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 13,11</t>
+          <t>9,66; 13,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,76</t>
+          <t>4,64; 6,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,06</t>
+          <t>6,81; 9,02</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,43</t>
+          <t>2,43; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,26</t>
+          <t>4,1; 8,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,49</t>
+          <t>7,22; 11,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 15,31</t>
+          <t>7,98; 15,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,78</t>
+          <t>5,3; 7,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,18</t>
+          <t>7,61; 11,28</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,94</t>
+          <t>3,22; 6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,82</t>
+          <t>5,51; 8,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,2</t>
+          <t>9,12; 13,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,85</t>
+          <t>11,12; 14,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,29</t>
+          <t>6,79; 9,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 11,46</t>
+          <t>8,87; 11,47</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,72; 3,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,13</t>
+          <t>5,37; 7,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,19; 11,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,9</t>
+          <t>10,72; 13,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,18; 7,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 9,89</t>
+          <t>8,53; 9,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P14_x_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14_x_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 10,46</t>
+          <t>0,83; 8,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,95; 22,08</t>
+          <t>8,29; 21,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,91</t>
+          <t>6,19; 14,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,82</t>
+          <t>1,37; 3,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,02</t>
+          <t>8,4; 13,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,34</t>
+          <t>5,39; 8,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,41</t>
+          <t>1,41; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,0</t>
+          <t>7,26; 11,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,93</t>
+          <t>4,77; 6,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,25</t>
+          <t>2,4; 5,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,81</t>
+          <t>7,29; 11,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,92</t>
+          <t>5,3; 7,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,04</t>
+          <t>3,21; 6,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,47</t>
+          <t>9,25; 13,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,28</t>
+          <t>6,88; 9,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,92</t>
+          <t>2,66; 3,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,24</t>
+          <t>9,26; 11,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,38</t>
+          <t>6,16; 7,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
